--- a/resource/resource_net.xlsx
+++ b/resource/resource_net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="14625" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>网站名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +172,18 @@
   </si>
   <si>
     <t>凤凰财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://markets.wallstreetcn.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华尔街见闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外汇贵金属</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -757,9 +770,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="5"/>
@@ -1248,9 +1267,10 @@
     <hyperlink ref="B13" r:id="rId12"/>
     <hyperlink ref="B14" r:id="rId13"/>
     <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
 </worksheet>
 </file>
 
